--- a/杂项/6.1test_xlsx.xlsx
+++ b/杂项/6.1test_xlsx.xlsx
@@ -1,47 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file\python\Note\杂项\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>col1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
+    <t>col5</t>
+  </si>
+  <si>
+    <t>col6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor rgb="00FFC0CB"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFC0CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,81 +89,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,37 +370,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D20" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>